--- a/src/main/resources/TestData/Testdata.xlsx
+++ b/src/main/resources/TestData/Testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>TC_ID</t>
   </si>
@@ -47,14 +47,20 @@
   <si>
     <t>TC_3</t>
   </si>
+  <si>
+    <t>TC_4</t>
+  </si>
+  <si>
+    <t>TC_5</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
@@ -73,14 +79,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -101,6 +107,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
@@ -111,21 +124,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -146,23 +160,32 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -184,33 +207,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -225,187 +231,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -443,17 +449,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -469,6 +471,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -491,28 +502,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
       <top style="thin">
-        <color theme="4"/>
+        <color rgb="FF3F3F3F"/>
       </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -521,15 +527,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
@@ -539,130 +545,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1003,7 +1009,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13636363636364" defaultRowHeight="12.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1055,6 +1061,28 @@
       </c>
       <c r="C4" s="1" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="3:3">

--- a/src/main/resources/TestData/Testdata.xlsx
+++ b/src/main/resources/TestData/Testdata.xlsx
@@ -60,9 +60,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -79,14 +79,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -94,6 +87,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -107,44 +108,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -162,30 +125,23 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,15 +164,59 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,187 +231,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,15 +422,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -445,6 +436,30 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -478,23 +493,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -502,8 +502,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -527,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,130 +545,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,7 +1009,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13636363636364" defaultRowHeight="12.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1079,7 +1079,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>5</v>

--- a/src/main/resources/TestData/Testdata.xlsx
+++ b/src/main/resources/TestData/Testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
   <si>
     <t>TC_ID</t>
   </si>
@@ -39,19 +39,22 @@
     <t>TC_2</t>
   </si>
   <si>
+    <t>Facebook</t>
+  </si>
+  <si>
+    <t>TC_3</t>
+  </si>
+  <si>
     <t>N</t>
   </si>
   <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>TC_3</t>
-  </si>
-  <si>
     <t>TC_4</t>
   </si>
   <si>
     <t>TC_5</t>
+  </si>
+  <si>
+    <t>Google</t>
   </si>
 </sst>
 </file>
@@ -60,9 +63,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -72,6 +75,20 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -79,22 +96,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -108,6 +110,75 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -123,6 +194,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,90 +211,15 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,187 +234,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,6 +425,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -443,8 +455,32 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -476,39 +512,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -527,7 +530,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,130 +548,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1009,7 +1012,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13636363636364" defaultRowHeight="12.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1046,21 +1049,21 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
       <c r="C4" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1068,10 +1071,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1079,10 +1082,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="3:3">

--- a/src/main/resources/TestData/Testdata.xlsx
+++ b/src/main/resources/TestData/Testdata.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
   <si>
     <t>TC_ID</t>
   </si>
@@ -39,22 +39,19 @@
     <t>TC_2</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
     <t>Facebook</t>
   </si>
   <si>
     <t>TC_3</t>
   </si>
   <si>
-    <t>N</t>
-  </si>
-  <si>
     <t>TC_4</t>
   </si>
   <si>
     <t>TC_5</t>
-  </si>
-  <si>
-    <t>Google</t>
   </si>
 </sst>
 </file>
@@ -63,9 +60,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -75,6 +72,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -82,21 +86,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -110,30 +108,30 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
@@ -166,6 +164,36 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -173,43 +201,13 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
@@ -217,9 +215,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -234,187 +231,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -425,15 +422,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -455,32 +443,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -512,6 +476,39 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
@@ -530,7 +527,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -548,130 +545,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1012,7 +1009,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.13636363636364" defaultRowHeight="12.5" outlineLevelRow="7" outlineLevelCol="2"/>
@@ -1049,21 +1046,21 @@
         <v>6</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1071,10 +1068,10 @@
         <v>10</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1082,10 +1079,10 @@
         <v>11</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>12</v>
+        <v>5</v>
       </c>
     </row>
     <row r="8" spans="3:3">

--- a/src/main/resources/TestData/Testdata.xlsx
+++ b/src/main/resources/TestData/Testdata.xlsx
@@ -8,15 +8,13 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525" iterate="1" iterateCount="100" iterateDelta="0.001"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="22">
   <si>
     <t>TC_ID</t>
   </si>
@@ -27,31 +25,61 @@
     <t>Class Name</t>
   </si>
   <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
     <t>TC_1</t>
   </si>
   <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Website</t>
+  </si>
+  <si>
+    <t>https://facebook.com</t>
+  </si>
+  <si>
+    <t>Chrome</t>
+  </si>
+  <si>
+    <t>TC_2</t>
+  </si>
+  <si>
+    <t>https://google.com</t>
+  </si>
+  <si>
+    <t>Edge</t>
+  </si>
+  <si>
+    <t>TC_3</t>
+  </si>
+  <si>
     <t>Y</t>
   </si>
   <si>
-    <t>Amazon</t>
-  </si>
-  <si>
-    <t>TC_2</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>Facebook</t>
-  </si>
-  <si>
-    <t>TC_3</t>
+    <t>https://www.linkedin.com/notifications/</t>
+  </si>
+  <si>
+    <t>TC_6</t>
+  </si>
+  <si>
+    <t>Tricentis</t>
+  </si>
+  <si>
+    <t>http://demowebshop.tricentis.com/</t>
   </si>
   <si>
     <t>TC_4</t>
   </si>
   <si>
     <t>TC_5</t>
+  </si>
+  <si>
+    <t>https://www.linkedin.com/in/george-scaria/</t>
   </si>
 </sst>
 </file>
@@ -59,20 +87,28 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_(&quot;$&quot;* #,##0_);_(&quot;$&quot;* \(#,##0\);_(&quot;$&quot;* &quot;-&quot;_);_(@_)"/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="21">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="10"/>
       <name val="Arial"/>
       <charset val="0"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -85,16 +121,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -104,44 +140,103 @@
       <sz val="13"/>
       <color theme="3"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -151,74 +246,7 @@
       <sz val="18"/>
       <color theme="3"/>
       <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -231,13 +259,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -249,169 +415,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -422,6 +450,33 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -440,11 +495,32 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -474,60 +550,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -545,130 +573,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="23" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -676,10 +704,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="10" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,11 +763,6 @@
     <cellStyle name="60% - Accent6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <mruColors>
-      <color rgb="00000000"/>
-    </mruColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1006,20 +1029,15 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C8"/>
+  <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="A1" sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13636363636364" defaultRowHeight="12.5" outlineLevelRow="7" outlineLevelCol="2"/>
-  <cols>
-    <col min="1" max="2" width="9.13636363636364" style="1"/>
-    <col min="3" max="3" width="9.63636363636364" style="1"/>
-    <col min="4" max="16384" width="9.13636363636364" style="1"/>
-  </cols>
+  <sheetFormatPr defaultColWidth="8.72727272727273" defaultRowHeight="14.5" outlineLevelRow="6" outlineLevelCol="4"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1029,102 +1047,121 @@
       <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:5">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:5">
       <c r="A3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
+      <c r="D3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:5">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>8</v>
-      </c>
     </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="6" spans="1:5">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="1" t="s">
-        <v>8</v>
+      <c r="D6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="7" spans="1:5">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="3:3">
-      <c r="C8" s="2"/>
+      <c r="D7" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
   </sheetData>
-  <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="256" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13636363636364" defaultRowHeight="12.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" errors="NA" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.13636363636364" defaultRowHeight="12.5"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
-  <pageSetup paperSize="9" fitToWidth="0" fitToHeight="0" orientation="portrait" useFirstPageNumber="1" errors="NA" horizontalDpi="600" verticalDpi="600"/>
-  <headerFooter alignWithMargins="0" scaleWithDoc="0"/>
+  <hyperlinks>
+    <hyperlink ref="D2" r:id="rId1" display="https://facebook.com"/>
+    <hyperlink ref="D3" r:id="rId2" display="https://google.com" tooltip="https://google.com"/>
+  </hyperlinks>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
 </worksheet>
 </file>